--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01621216058264518</v>
+        <v>-0.01740018064174906</v>
       </c>
       <c r="H2" t="n">
-        <v>-23.83093329932974</v>
+        <v>18.2492973007025</v>
       </c>
       <c r="I2" t="n">
-        <v>-77.87550327789265</v>
+        <v>6.077947979733453</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001625883396716546</v>
+        <v>-0.006949246106050759</v>
       </c>
       <c r="H3" t="n">
-        <v>-38.98875554139894</v>
+        <v>-360.7703318918637</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04712987672883173</v>
+        <v>0.06458477116223063</v>
       </c>
       <c r="H4" t="n">
-        <v>-11.44320859719322</v>
+        <v>21.35444657577069</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08506165020995593</v>
+        <v>0.08220790565676979</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2718054461393755</v>
+        <v>-3.617599835322963</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0323697526130917</v>
+        <v>0.0366163290898853</v>
       </c>
       <c r="H6" t="n">
-        <v>-41.6678115532638</v>
+        <v>-34.015232237671</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06403002581960258</v>
+        <v>0.06421562469135791</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.53485236990609</v>
+        <v>-14.28712117237014</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02405076355343983</v>
+        <v>-0.003045020877464573</v>
       </c>
       <c r="H8" t="n">
-        <v>20.89025702000726</v>
+        <v>84.69431726398012</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001652231940384034</v>
+        <v>0.04542531892605885</v>
       </c>
       <c r="H9" t="n">
-        <v>-77.16013985624207</v>
+        <v>727.9432723081436</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04233983777278333</v>
+        <v>-0.0262911863684369</v>
       </c>
       <c r="H10" t="n">
-        <v>-14.58360534095972</v>
+        <v>46.96015693417809</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04104147250117465</v>
+        <v>-0.06309293889817391</v>
       </c>
       <c r="H11" t="n">
-        <v>-46.89380802726886</v>
+        <v>18.3600021867071</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.09226926519791596</v>
+        <v>-0.05681421334581308</v>
       </c>
       <c r="H12" t="n">
-        <v>15.6156920758708</v>
+        <v>28.81037275377895</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05957257964620327</v>
+        <v>-0.07010641380716487</v>
       </c>
       <c r="H13" t="n">
-        <v>30.39752490711986</v>
+        <v>-53.45487630148747</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04556431673989209</v>
+        <v>-0.04919132240211378</v>
       </c>
       <c r="H14" t="n">
-        <v>-18.19052411265076</v>
+        <v>11.67833533210399</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08332179055529954</v>
+        <v>-0.1217788311070373</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.485615610564635</v>
+        <v>-43.98354257896772</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1436194873486875</v>
+        <v>-0.1586537759386228</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.407177095070821</v>
+        <v>-2.285568970299366</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1784699075651981</v>
+        <v>-0.1761148379274932</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.08646606818526</v>
+        <v>10.28615124951508</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09894665062196997</v>
+        <v>-0.105202729878129</v>
       </c>
       <c r="H18" t="n">
-        <v>-9.222446642810525</v>
+        <v>3.482873196787446</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.07295194392730843</v>
+        <v>-0.1176679634629182</v>
       </c>
       <c r="H19" t="n">
-        <v>-17.23963821963903</v>
+        <v>-33.48846791324565</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09231884578603346</v>
+        <v>0.09353718449703985</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5179569841540232</v>
+        <v>1.844499978732898</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1052729434337975</v>
+        <v>0.09605440333703953</v>
       </c>
       <c r="H21" t="n">
-        <v>39.74133551889484</v>
+        <v>27.50446759598402</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1196150287121597</v>
+        <v>0.1095384992028235</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.7008748230775588</v>
+        <v>-9.065965530068386</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1470364637695519</v>
+        <v>0.1537612481051953</v>
       </c>
       <c r="H23" t="n">
-        <v>11.98630322635035</v>
+        <v>17.10805138620455</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09300810799021143</v>
+        <v>0.07751764034813172</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.499906197174897</v>
+        <v>-18.73851249493285</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09800045274598193</v>
+        <v>0.09264508144674055</v>
       </c>
       <c r="H25" t="n">
-        <v>14.22347907122402</v>
+        <v>7.981577892429602</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05136754473071289</v>
+        <v>0.04142747235532719</v>
       </c>
       <c r="H26" t="n">
-        <v>33.77628295332326</v>
+        <v>7.889393836136242</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03427222413420089</v>
+        <v>0.04045455688991732</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.343574382749701</v>
+        <v>12.9117940191548</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1110740447038388</v>
+        <v>-0.1152801128317739</v>
       </c>
       <c r="H28" t="n">
-        <v>13.38506930495786</v>
+        <v>-17.67864956899603</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08613753550273322</v>
+        <v>-0.1071992438262782</v>
       </c>
       <c r="H29" t="n">
-        <v>-20.86744001035375</v>
+        <v>1.518536101389814</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1242239190633057</v>
+        <v>0.1021701096116758</v>
       </c>
       <c r="H30" t="n">
-        <v>1.871947934405267</v>
+        <v>-16.2136554272695</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1162040470675979</v>
+        <v>0.1143214210029068</v>
       </c>
       <c r="H31" t="n">
-        <v>7.984396388407952</v>
+        <v>6.234937188398401</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06336224780519853</v>
+        <v>0.05142882221253423</v>
       </c>
       <c r="H32" t="n">
-        <v>40.81900826462471</v>
+        <v>14.2976455389039</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07779143653442473</v>
+        <v>0.0854520233687894</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.346117064114425</v>
+        <v>0.6795875663218365</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02699643609502925</v>
+        <v>0.001087811241594798</v>
       </c>
       <c r="H34" t="n">
-        <v>-5892.934275836654</v>
+        <v>333.4241084598283</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04888774176951097</v>
+        <v>0.04253747378714628</v>
       </c>
       <c r="H35" t="n">
-        <v>19.42965053228018</v>
+        <v>3.916348864639469</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03655081994353539</v>
+        <v>0.03700603687895951</v>
       </c>
       <c r="H36" t="n">
-        <v>-11.94984962124161</v>
+        <v>-10.85324167425243</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04000300403002062</v>
+        <v>0.02687819436367122</v>
       </c>
       <c r="H37" t="n">
-        <v>-5.117122983398806</v>
+        <v>-36.24777758383749</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1102572739118009</v>
+        <v>-0.1243120517195455</v>
       </c>
       <c r="H38" t="n">
-        <v>6.043212482282526</v>
+        <v>-19.56081305936708</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1327196979729412</v>
+        <v>-0.1286427431666291</v>
       </c>
       <c r="H39" t="n">
-        <v>34.69984331216073</v>
+        <v>-30.56206134016617</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1342376028773391</v>
+        <v>0.1163546415830322</v>
       </c>
       <c r="H40" t="n">
-        <v>1.44780739644327</v>
+        <v>-12.06693939712565</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1134319167925541</v>
+        <v>0.1427864867599586</v>
       </c>
       <c r="H41" t="n">
-        <v>-10.47274405913279</v>
+        <v>12.69563899228034</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07810448658303054</v>
+        <v>0.09283229782331114</v>
       </c>
       <c r="H42" t="n">
-        <v>-17.32442093099905</v>
+        <v>-1.734659369546199</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1078050225740155</v>
+        <v>0.08741568923319203</v>
       </c>
       <c r="H43" t="n">
-        <v>1.825872282404118</v>
+        <v>-17.43261496721015</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04013680602352394</v>
+        <v>-0.02553593148231548</v>
       </c>
       <c r="H44" t="n">
-        <v>229.9528734870643</v>
+        <v>-109.9233796735235</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01704060105416278</v>
+        <v>-0.02366539997167107</v>
       </c>
       <c r="H45" t="n">
-        <v>-53.3903875276312</v>
+        <v>35.27017514363204</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04914773993626455</v>
+        <v>0.06550665255664163</v>
       </c>
       <c r="H46" t="n">
-        <v>-9.943933487643681</v>
+        <v>20.03138836685044</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05237504665710489</v>
+        <v>0.03826509089379432</v>
       </c>
       <c r="H47" t="n">
-        <v>29.73583167004534</v>
+        <v>-5.215294154533242</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01655265287330134</v>
+        <v>-0.01695335826525408</v>
       </c>
       <c r="H48" t="n">
-        <v>-45.04493670522531</v>
+        <v>43.71458861263412</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02478691659348139</v>
+        <v>-0.02102244092076632</v>
       </c>
       <c r="H49" t="n">
-        <v>-28.45088485246127</v>
+        <v>39.31729909004468</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07461466095864849</v>
+        <v>0.08922702718751473</v>
       </c>
       <c r="H50" t="n">
-        <v>-17.12978813565714</v>
+        <v>-0.9006735130414618</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07637064831926242</v>
+        <v>0.06571266580014458</v>
       </c>
       <c r="H51" t="n">
-        <v>16.53313436260321</v>
+        <v>0.2702357717400884</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03712114906886232</v>
+        <v>0.0212831064896163</v>
       </c>
       <c r="H52" t="n">
-        <v>152.4695065587613</v>
+        <v>44.75132177355518</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.009678645776507903</v>
+        <v>0.0197581391187775</v>
       </c>
       <c r="H53" t="n">
-        <v>-65.64408471027205</v>
+        <v>-29.86529629021128</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03975801865524807</v>
+        <v>0.03649937799782885</v>
       </c>
       <c r="H54" t="n">
-        <v>104.9071864056492</v>
+        <v>88.11261486503025</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05355577017677323</v>
+        <v>0.06570329947521811</v>
       </c>
       <c r="H55" t="n">
-        <v>-17.912882168161</v>
+        <v>0.7061324701462734</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07037661715404528</v>
+        <v>0.06134167132549796</v>
       </c>
       <c r="H56" t="n">
-        <v>9.65827084814001</v>
+        <v>-4.419651291772981</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07728851149227453</v>
+        <v>0.08687679584041608</v>
       </c>
       <c r="H57" t="n">
-        <v>2.008321100127918</v>
+        <v>14.66330396497865</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02399768010422208</v>
+        <v>0.02327515501611105</v>
       </c>
       <c r="H58" t="n">
-        <v>-15.72754699934254</v>
+        <v>-18.26483232297348</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0225742149022451</v>
+        <v>0.02212171490263357</v>
       </c>
       <c r="H59" t="n">
-        <v>-15.95689377494281</v>
+        <v>-17.64153732506725</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05618743694874719</v>
+        <v>0.05861543364816977</v>
       </c>
       <c r="H60" t="n">
-        <v>24.84332024582424</v>
+        <v>30.238105734586</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03999414587021616</v>
+        <v>0.04734732190563293</v>
       </c>
       <c r="H61" t="n">
-        <v>-20.05662542762807</v>
+        <v>-5.358531661518232</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0109642344023149</v>
+        <v>0.004353454182637655</v>
       </c>
       <c r="H62" t="n">
-        <v>-13.84128923310031</v>
+        <v>134.2101405347221</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.01083862916824611</v>
+        <v>-0.007896216720365971</v>
       </c>
       <c r="H63" t="n">
-        <v>-360.4025018129586</v>
+        <v>-289.7098384788954</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04590254400498986</v>
+        <v>0.04974880191262167</v>
       </c>
       <c r="H64" t="n">
-        <v>21.85112986223922</v>
+        <v>32.06125834086038</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06988424451418555</v>
+        <v>0.07399272504666568</v>
       </c>
       <c r="H65" t="n">
-        <v>-8.537594642353854</v>
+        <v>-3.160538419195876</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.008135758131697896</v>
+        <v>-0.01761377043406906</v>
       </c>
       <c r="H66" t="n">
-        <v>30.40687418378209</v>
+        <v>-182.3285436606631</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.007036387860245366</v>
+        <v>0.01176633459770612</v>
       </c>
       <c r="H67" t="n">
-        <v>19.4036189931107</v>
+        <v>99.66820493050056</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.004684924451911489</v>
+        <v>-0.001783607668765052</v>
       </c>
       <c r="H68" t="n">
-        <v>-2829.892290977511</v>
+        <v>-1139.303168080644</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.009146575954938129</v>
+        <v>0.0082011481727011</v>
       </c>
       <c r="H69" t="n">
-        <v>29.85665983329228</v>
+        <v>16.43414035499334</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08297764338803594</v>
+        <v>-0.06408068159239561</v>
       </c>
       <c r="H70" t="n">
-        <v>31.71245267839863</v>
+        <v>-1.716840792502949</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.05431597428981613</v>
+        <v>-0.05270246794233803</v>
       </c>
       <c r="H71" t="n">
-        <v>14.82039574757589</v>
+        <v>-11.40954949505093</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06856334506404645</v>
+        <v>0.06829879197826416</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1276632634871029</v>
+        <v>-0.258681397261013</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07953625608839904</v>
+        <v>0.08204132749251947</v>
       </c>
       <c r="H73" t="n">
-        <v>7.97366491793905</v>
+        <v>11.37440005039724</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.06303920736668871</v>
+        <v>0.04942135184929668</v>
       </c>
       <c r="H74" t="n">
-        <v>0.004840066340102526</v>
+        <v>-21.59840527812705</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0380134609010411</v>
+        <v>0.02989169663426317</v>
       </c>
       <c r="H75" t="n">
-        <v>43.61661237616579</v>
+        <v>12.93221156486015</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.003003413997175809</v>
+        <v>0.003663576790883229</v>
       </c>
       <c r="H76" t="n">
-        <v>-82.48197485107835</v>
+        <v>-78.63144061456497</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.001487871731078249</v>
+        <v>-0.004187685184569149</v>
       </c>
       <c r="H77" t="n">
-        <v>-87.27695422886454</v>
+        <v>64.19038740673737</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00913510602690955</v>
+        <v>0.01133268968426819</v>
       </c>
       <c r="H78" t="n">
-        <v>259.7168488764153</v>
+        <v>346.2520096111387</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.002928357657972768</v>
+        <v>0.006519676181295144</v>
       </c>
       <c r="H79" t="n">
-        <v>-143.3696917145764</v>
+        <v>196.5579956709873</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05729683390061115</v>
+        <v>0.04106268478144668</v>
       </c>
       <c r="H80" t="n">
-        <v>364.1370050438882</v>
+        <v>232.6311461918077</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04741219172186834</v>
+        <v>0.04559844276418149</v>
       </c>
       <c r="H81" t="n">
-        <v>18.39408765886213</v>
+        <v>13.86493291429246</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0497588975261988</v>
+        <v>0.04847427393761002</v>
       </c>
       <c r="H82" t="n">
-        <v>26.65134482312192</v>
+        <v>23.38159181059566</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03700223729548688</v>
+        <v>0.04712880260425315</v>
       </c>
       <c r="H83" t="n">
-        <v>-10.83116525145094</v>
+        <v>13.57206262304043</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.009028894642535132</v>
+        <v>0.01903045396257894</v>
       </c>
       <c r="H84" t="n">
-        <v>-75.29476881269261</v>
+        <v>-47.9280927113672</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04523615624607207</v>
+        <v>0.03270053153360293</v>
       </c>
       <c r="H85" t="n">
-        <v>45.83505305392723</v>
+        <v>5.421948875435093</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03368487865233359</v>
+        <v>0.02414112748184119</v>
       </c>
       <c r="H86" t="n">
-        <v>3.289075546409255</v>
+        <v>-25.97524942917828</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06032446238037852</v>
+        <v>0.05227343831376718</v>
       </c>
       <c r="H87" t="n">
-        <v>11.72683797401545</v>
+        <v>-3.184450513617495</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06449183998100462</v>
+        <v>0.07505293183564</v>
       </c>
       <c r="H88" t="n">
-        <v>-23.66592357128561</v>
+        <v>-11.16556394377522</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1114954626284011</v>
+        <v>0.0962064372393213</v>
       </c>
       <c r="H89" t="n">
-        <v>23.461597451241</v>
+        <v>6.531693278373385</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04630025559202653</v>
+        <v>-0.03791696874915127</v>
       </c>
       <c r="H90" t="n">
-        <v>-6.930151143882454</v>
+        <v>23.7817047564341</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01360385174133223</v>
+        <v>-0.02604122908427575</v>
       </c>
       <c r="H91" t="n">
-        <v>-33.6852199374695</v>
+        <v>-26.94334017437631</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04020362021659184</v>
+        <v>0.03918029682281662</v>
       </c>
       <c r="H92" t="n">
-        <v>1.759141537940496</v>
+        <v>-0.8309861546717057</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03962285980176859</v>
+        <v>0.03786817766341342</v>
       </c>
       <c r="H93" t="n">
-        <v>-19.49259991007482</v>
+        <v>-23.05783719102696</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.100467053746207</v>
+        <v>0.09955826110484699</v>
       </c>
       <c r="H94" t="n">
-        <v>10.69724836454366</v>
+        <v>9.695916674389494</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1022708344814479</v>
+        <v>0.1042235360393108</v>
       </c>
       <c r="H95" t="n">
-        <v>-1.71174465134887</v>
+        <v>0.1649157896466829</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.102905662958562</v>
+        <v>-0.09313253277579409</v>
       </c>
       <c r="H96" t="n">
-        <v>-8.153908778289912</v>
+        <v>16.87669215562071</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1065725697213398</v>
+        <v>-0.1064248772000655</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.3878653785546515</v>
+        <v>0.5259118510214744</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0863455953560008</v>
+        <v>0.09976473890187489</v>
       </c>
       <c r="H98" t="n">
-        <v>-10.73897749259615</v>
+        <v>3.133258481223048</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1271722725401409</v>
+        <v>0.114374795237651</v>
       </c>
       <c r="H99" t="n">
-        <v>11.65473848218041</v>
+        <v>0.4188066795924703</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.04835977199910877</v>
+        <v>0.0370662976259282</v>
       </c>
       <c r="H100" t="n">
-        <v>25.87610680698408</v>
+        <v>-3.51978419197706</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0419215127356842</v>
+        <v>0.01971051347660408</v>
       </c>
       <c r="H101" t="n">
-        <v>107.8808211214819</v>
+        <v>-2.259306526534465</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>0.007710084864232095</v>
+        <v>0.005788194312001992</v>
       </c>
       <c r="H102" t="n">
-        <v>-423.9513413411916</v>
+        <v>343.2000872020565</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.002225178120567253</v>
+        <v>-0.004227424377692959</v>
       </c>
       <c r="H103" t="n">
-        <v>-65.71393692209372</v>
+        <v>34.86285995221349</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07720022188316709</v>
+        <v>0.07361910757432487</v>
       </c>
       <c r="H104" t="n">
-        <v>68.19552957819528</v>
+        <v>60.39338338012712</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08906106204518963</v>
+        <v>0.07247046015183095</v>
       </c>
       <c r="H105" t="n">
-        <v>34.02864699599579</v>
+        <v>9.061328242399464</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2968855551631921</v>
+        <v>-0.283491890515842</v>
       </c>
       <c r="H106" t="n">
-        <v>15.17799251658</v>
+        <v>-9.981864312652721</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2583099852728054</v>
+        <v>-0.2920791064147253</v>
       </c>
       <c r="H107" t="n">
-        <v>-10.74882714167596</v>
+        <v>-0.919067404205074</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1351106518372559</v>
+        <v>0.1495831492458883</v>
       </c>
       <c r="H108" t="n">
-        <v>-10.53839000187736</v>
+        <v>-0.9556302322816139</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.200749693435452</v>
+        <v>0.2113883324529915</v>
       </c>
       <c r="H109" t="n">
-        <v>6.325437970620245</v>
+        <v>11.9601063658421</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0437738301252559</v>
+        <v>0.06576750815211897</v>
       </c>
       <c r="H110" t="n">
-        <v>-39.11436593520617</v>
+        <v>-8.523050798953786</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.09715445145803536</v>
+        <v>0.08045620285303999</v>
       </c>
       <c r="H111" t="n">
-        <v>48.54807674155139</v>
+        <v>23.0166401681508</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.06696613998256151</v>
+        <v>0.105040786183103</v>
       </c>
       <c r="H112" t="n">
-        <v>-20.45473189999261</v>
+        <v>24.77197432234134</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08710042349806421</v>
+        <v>0.07231418636215091</v>
       </c>
       <c r="H113" t="n">
-        <v>13.08733918522136</v>
+        <v>-6.110457416758494</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Auto Recurrence/input 125/DJI_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01740018064174906</v>
+        <v>-0.01468336569659512</v>
       </c>
       <c r="H2" t="n">
-        <v>18.2492973007025</v>
+        <v>31.01362058234646</v>
       </c>
       <c r="I2" t="n">
-        <v>6.077947979733453</v>
+        <v>-2.020110804813021</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.006949246106050759</v>
+        <v>0.001044389675179918</v>
       </c>
       <c r="H3" t="n">
-        <v>-360.7703318918637</v>
+        <v>-60.8092967114851</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06458477116223063</v>
+        <v>0.06491508798045895</v>
       </c>
       <c r="H4" t="n">
-        <v>21.35444657577069</v>
+        <v>21.97511014629068</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08220790565676979</v>
+        <v>0.08573188291931502</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.617599835322963</v>
+        <v>0.51399047799732</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0366163290898853</v>
+        <v>0.0251552215264502</v>
       </c>
       <c r="H6" t="n">
-        <v>-34.015232237671</v>
+        <v>-54.66881875684072</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06421562469135791</v>
+        <v>0.052616235975334</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.28712117237014</v>
+        <v>-29.76959921832358</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.003045020877464573</v>
+        <v>-0.01897701188721036</v>
       </c>
       <c r="H8" t="n">
-        <v>84.69431726398012</v>
+        <v>4.612764604370437</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04542531892605885</v>
+        <v>0.005107360569410811</v>
       </c>
       <c r="H9" t="n">
-        <v>727.9432723081436</v>
+        <v>170.6023157269148</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0262911863684369</v>
+        <v>-0.08094808024739765</v>
       </c>
       <c r="H10" t="n">
-        <v>46.96015693417809</v>
+        <v>-63.30466844036871</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06309293889817391</v>
+        <v>-0.07119310210723989</v>
       </c>
       <c r="H11" t="n">
-        <v>18.3600021867071</v>
+        <v>7.878681800875421</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05681421334581308</v>
+        <v>-0.1034944649362136</v>
       </c>
       <c r="H12" t="n">
-        <v>28.81037275377895</v>
+        <v>-29.68114749755847</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07010641380716487</v>
+        <v>-0.05354473961837575</v>
       </c>
       <c r="H13" t="n">
-        <v>-53.45487630148747</v>
+        <v>-17.20327639827812</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04919132240211378</v>
+        <v>-0.04974215070198466</v>
       </c>
       <c r="H14" t="n">
-        <v>11.67833533210399</v>
+        <v>10.68933828922937</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1217788311070373</v>
+        <v>-0.09798997929015471</v>
       </c>
       <c r="H15" t="n">
-        <v>-43.98354257896772</v>
+        <v>-15.85711758914095</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1586537759386228</v>
+        <v>-0.1421619146963671</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.285568970299366</v>
+        <v>8.346887777505623</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1761148379274932</v>
+        <v>-0.2025849250087529</v>
       </c>
       <c r="H17" t="n">
-        <v>10.28615124951508</v>
+        <v>-3.197853941450027</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.105202729878129</v>
+        <v>-0.0911399181144642</v>
       </c>
       <c r="H18" t="n">
-        <v>3.482873196787446</v>
+        <v>16.38465043940935</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1176679634629182</v>
+        <v>-0.09061184009701302</v>
       </c>
       <c r="H19" t="n">
-        <v>-33.48846791324565</v>
+        <v>-2.794638008348621</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09353718449703985</v>
+        <v>0.08942647312709874</v>
       </c>
       <c r="H20" t="n">
-        <v>1.844499978732898</v>
+        <v>-2.631295890895756</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09605440333703953</v>
+        <v>0.1208912869332572</v>
       </c>
       <c r="H21" t="n">
-        <v>27.50446759598402</v>
+        <v>60.4734259119013</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1095384992028235</v>
+        <v>0.1324409028859322</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.065965530068386</v>
+        <v>9.946600655523572</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1537612481051953</v>
+        <v>0.1499059759829272</v>
       </c>
       <c r="H23" t="n">
-        <v>17.10805138620455</v>
+        <v>14.17178876238993</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07751764034813172</v>
+        <v>0.08991891309858031</v>
       </c>
       <c r="H24" t="n">
-        <v>-18.73851249493285</v>
+        <v>-5.738299045042972</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09264508144674055</v>
+        <v>0.1131002189602061</v>
       </c>
       <c r="H25" t="n">
-        <v>7.981577892429602</v>
+        <v>31.82286541917664</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04142747235532719</v>
+        <v>0.03754734240726109</v>
       </c>
       <c r="H26" t="n">
-        <v>7.889393836136242</v>
+        <v>-2.215612438726654</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04045455688991732</v>
+        <v>0.04722569730862706</v>
       </c>
       <c r="H27" t="n">
-        <v>12.9117940191548</v>
+        <v>31.81057010296052</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1152801128317739</v>
+        <v>-0.1129389626433083</v>
       </c>
       <c r="H28" t="n">
-        <v>-17.67864956899603</v>
+        <v>-15.28878902974699</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1071992438262782</v>
+        <v>-0.08370347534395953</v>
       </c>
       <c r="H29" t="n">
-        <v>1.518536101389814</v>
+        <v>23.1035547355824</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1021701096116758</v>
+        <v>0.1136926733836665</v>
       </c>
       <c r="H30" t="n">
-        <v>-16.2136554272695</v>
+        <v>-6.764380074324729</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1143214210029068</v>
+        <v>0.1056496168122621</v>
       </c>
       <c r="H31" t="n">
-        <v>6.234937188398401</v>
+        <v>-1.823470111138275</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05142882221253423</v>
+        <v>0.04612358894144788</v>
       </c>
       <c r="H32" t="n">
-        <v>14.2976455389039</v>
+        <v>2.507064968850676</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0854520233687894</v>
+        <v>0.07423759291457374</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6795875663218365</v>
+        <v>-12.53325618401132</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001087811241594798</v>
+        <v>-0.0005964165926505491</v>
       </c>
       <c r="H34" t="n">
-        <v>333.4241084598283</v>
+        <v>-27.97993446546928</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04253747378714628</v>
+        <v>0.05540395233996775</v>
       </c>
       <c r="H35" t="n">
-        <v>3.916348864639469</v>
+        <v>35.34833941125288</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03700603687895951</v>
+        <v>0.03003067040498162</v>
       </c>
       <c r="H36" t="n">
-        <v>-10.85324167425243</v>
+        <v>-27.65675163461738</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02687819436367122</v>
+        <v>0.009315860860287508</v>
       </c>
       <c r="H37" t="n">
-        <v>-36.24777758383749</v>
+        <v>-77.90376743588841</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1243120517195455</v>
+        <v>-0.1214950585064858</v>
       </c>
       <c r="H38" t="n">
-        <v>-19.56081305936708</v>
+        <v>-16.85148605303644</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1286427431666291</v>
+        <v>-0.1364949219793482</v>
       </c>
       <c r="H39" t="n">
-        <v>-30.56206134016617</v>
+        <v>-38.53139273472654</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1163546415830322</v>
+        <v>0.1209084821450596</v>
       </c>
       <c r="H40" t="n">
-        <v>-12.06693939712565</v>
+        <v>-8.625451093190403</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1427864867599586</v>
+        <v>0.1335858965364298</v>
       </c>
       <c r="H41" t="n">
-        <v>12.69563899228034</v>
+        <v>5.433982669789531</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09283229782331114</v>
+        <v>0.07475724685383746</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.734659369546199</v>
+        <v>-20.86755903996819</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08741568923319203</v>
+        <v>0.1193135540200988</v>
       </c>
       <c r="H43" t="n">
-        <v>-17.43261496721015</v>
+        <v>12.69611028437052</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.02553593148231548</v>
+        <v>-0.03139472166741325</v>
       </c>
       <c r="H44" t="n">
-        <v>-109.9233796735235</v>
+        <v>-158.0867700438939</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.02366539997167107</v>
+        <v>-0.01643097705610254</v>
       </c>
       <c r="H45" t="n">
-        <v>35.27017514363204</v>
+        <v>55.05783682787187</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06550665255664163</v>
+        <v>0.06328729397622701</v>
       </c>
       <c r="H46" t="n">
-        <v>20.03138836685044</v>
+        <v>15.9647374040233</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03826509089379432</v>
+        <v>0.06457327979739705</v>
       </c>
       <c r="H47" t="n">
-        <v>-5.215294154533242</v>
+        <v>59.95151685542994</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01695335826525408</v>
+        <v>-0.01656469594413606</v>
       </c>
       <c r="H48" t="n">
-        <v>43.71458861263412</v>
+        <v>45.00495352397628</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02102244092076632</v>
+        <v>-0.02476601465253083</v>
       </c>
       <c r="H49" t="n">
-        <v>39.31729909004468</v>
+        <v>28.51121972203807</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08922702718751473</v>
+        <v>0.07919523420320206</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.9006735130414618</v>
+        <v>-12.04240892144795</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06571266580014458</v>
+        <v>0.06508424560473081</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2702357717400884</v>
+        <v>-0.68866370967044</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0212831064896163</v>
+        <v>0.02158139014350571</v>
       </c>
       <c r="H52" t="n">
-        <v>44.75132177355518</v>
+        <v>46.7800177811142</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0197581391187775</v>
+        <v>0.01688480085859068</v>
       </c>
       <c r="H53" t="n">
-        <v>-29.86529629021128</v>
+        <v>-40.06467419340074</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03649937799782885</v>
+        <v>0.03665550222848489</v>
       </c>
       <c r="H54" t="n">
-        <v>88.11261486503025</v>
+        <v>88.91725699548645</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06570329947521811</v>
+        <v>0.06604668923909647</v>
       </c>
       <c r="H55" t="n">
-        <v>0.7061324701462734</v>
+        <v>1.232459995951428</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06134167132549796</v>
+        <v>0.07664880015199568</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.419651291772981</v>
+        <v>19.43135699254571</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08687679584041608</v>
+        <v>0.07712843148254817</v>
       </c>
       <c r="H57" t="n">
-        <v>14.66330396497865</v>
+        <v>1.797041406437467</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02327515501611105</v>
+        <v>0.02861512949334768</v>
       </c>
       <c r="H58" t="n">
-        <v>-18.26483232297348</v>
+        <v>0.4875114953967257</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02212171490263357</v>
+        <v>0.0149007357134596</v>
       </c>
       <c r="H59" t="n">
-        <v>-17.64153732506725</v>
+        <v>-44.52502025781452</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05861543364816977</v>
+        <v>0.05712004109116012</v>
       </c>
       <c r="H60" t="n">
-        <v>30.238105734586</v>
+        <v>26.91548092686836</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04734732190563293</v>
+        <v>0.04505630781676545</v>
       </c>
       <c r="H61" t="n">
-        <v>-5.358531661518232</v>
+        <v>-9.937986816061434</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.004353454182637655</v>
+        <v>-0.01292896436584481</v>
       </c>
       <c r="H62" t="n">
-        <v>134.2101405347221</v>
+        <v>-1.597873635133772</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.007896216720365971</v>
+        <v>-0.003808237302413977</v>
       </c>
       <c r="H63" t="n">
-        <v>-289.7098384788954</v>
+        <v>-191.4944598299697</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04974880191262167</v>
+        <v>0.04854159603614777</v>
       </c>
       <c r="H64" t="n">
-        <v>32.06125834086038</v>
+        <v>28.85665599880525</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07399272504666568</v>
+        <v>0.07187029885573439</v>
       </c>
       <c r="H65" t="n">
-        <v>-3.160538419195876</v>
+        <v>-5.938306226033063</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.01761377043406906</v>
+        <v>-0.002276142594324029</v>
       </c>
       <c r="H66" t="n">
-        <v>-182.3285436606631</v>
+        <v>63.51604409601408</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01176633459770612</v>
+        <v>0.01968285133416819</v>
       </c>
       <c r="H67" t="n">
-        <v>99.66820493050056</v>
+        <v>234.0071252583147</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.001783607668765052</v>
+        <v>-0.002314312979156</v>
       </c>
       <c r="H68" t="n">
-        <v>-1139.303168080644</v>
+        <v>-1448.5436586132</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0082011481727011</v>
+        <v>0.0125303938500576</v>
       </c>
       <c r="H69" t="n">
-        <v>16.43414035499334</v>
+        <v>77.89772913716693</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.06408068159239561</v>
+        <v>-0.06442463049822393</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.716840792502949</v>
+        <v>-2.262799343902737</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.05270246794233803</v>
+        <v>-0.0751824342651297</v>
       </c>
       <c r="H71" t="n">
-        <v>-11.40954949505093</v>
+        <v>-58.93071915690247</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06829879197826416</v>
+        <v>0.07439695058378014</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.258681397261013</v>
+        <v>8.64686967831838</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08204132749251947</v>
+        <v>0.06121541940780664</v>
       </c>
       <c r="H73" t="n">
-        <v>11.37440005039724</v>
+        <v>-16.89760735527398</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04942135184929668</v>
+        <v>0.04824138311072861</v>
       </c>
       <c r="H74" t="n">
-        <v>-21.59840527812705</v>
+        <v>-23.47029723097758</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02989169663426317</v>
+        <v>0.03232432642867866</v>
       </c>
       <c r="H75" t="n">
-        <v>12.93221156486015</v>
+        <v>22.12279937134198</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.003663576790883229</v>
+        <v>0.02005300414135406</v>
       </c>
       <c r="H76" t="n">
-        <v>-78.63144061456497</v>
+        <v>16.96323956337588</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.004187685184569149</v>
+        <v>0.001158525145868895</v>
       </c>
       <c r="H77" t="n">
-        <v>64.19038740673737</v>
+        <v>109.9067467645342</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01133268968426819</v>
+        <v>0.002837114580009166</v>
       </c>
       <c r="H78" t="n">
-        <v>346.2520096111387</v>
+        <v>11.71823442617353</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.006519676181295144</v>
+        <v>-0.0006779713300276196</v>
       </c>
       <c r="H79" t="n">
-        <v>196.5579956709873</v>
+        <v>89.95907911229175</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04106268478144668</v>
+        <v>0.03609606455508292</v>
       </c>
       <c r="H80" t="n">
-        <v>232.6311461918077</v>
+        <v>192.3986921428888</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04559844276418149</v>
+        <v>0.03682069000636508</v>
       </c>
       <c r="H81" t="n">
-        <v>13.86493291429246</v>
+        <v>-8.054197834885715</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04847427393761002</v>
+        <v>0.0587479446942854</v>
       </c>
       <c r="H82" t="n">
-        <v>23.38159181059566</v>
+        <v>49.53117072596109</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04712880260425315</v>
+        <v>0.04106436808927367</v>
       </c>
       <c r="H83" t="n">
-        <v>13.57206262304043</v>
+        <v>-1.04214988501131</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01903045396257894</v>
+        <v>0.01803869449600623</v>
       </c>
       <c r="H84" t="n">
-        <v>-47.9280927113672</v>
+        <v>-50.6417855690125</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03270053153360293</v>
+        <v>0.02511700303891127</v>
       </c>
       <c r="H85" t="n">
-        <v>5.421948875435093</v>
+        <v>-19.02628837848408</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02414112748184119</v>
+        <v>0.03114196586085765</v>
       </c>
       <c r="H86" t="n">
-        <v>-25.97524942917828</v>
+        <v>-4.508343412334508</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05227343831376718</v>
+        <v>0.06900750475253856</v>
       </c>
       <c r="H87" t="n">
-        <v>-3.184450513617495</v>
+        <v>27.80868653022213</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07505293183564</v>
+        <v>0.08717593454746086</v>
       </c>
       <c r="H88" t="n">
-        <v>-11.16556394377522</v>
+        <v>3.183510541031094</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0962064372393213</v>
+        <v>0.1001443473413279</v>
       </c>
       <c r="H89" t="n">
-        <v>6.531693278373385</v>
+        <v>10.89223549553505</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03791696874915127</v>
+        <v>-0.03400376225447191</v>
       </c>
       <c r="H90" t="n">
-        <v>23.7817047564341</v>
+        <v>31.64778524229012</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02604122908427575</v>
+        <v>-0.01977559519526699</v>
       </c>
       <c r="H91" t="n">
-        <v>-26.94334017437631</v>
+        <v>3.5997840232756</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03918029682281662</v>
+        <v>0.04259519211140181</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.8309861546717057</v>
+        <v>7.812434789419703</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03786817766341342</v>
+        <v>0.03331610693482382</v>
       </c>
       <c r="H93" t="n">
-        <v>-23.05783719102696</v>
+        <v>-32.30692676249303</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.09955826110484699</v>
+        <v>0.09251751530218841</v>
       </c>
       <c r="H94" t="n">
-        <v>9.695916674389494</v>
+        <v>1.938237338461521</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1042235360393108</v>
+        <v>0.1077249641550375</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1649157896466829</v>
+        <v>3.529993061856897</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09313253277579409</v>
+        <v>-0.07516659336468216</v>
       </c>
       <c r="H96" t="n">
-        <v>16.87669215562071</v>
+        <v>32.91177965805645</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1064248772000655</v>
+        <v>-0.08085124752283489</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5259118510214744</v>
+        <v>24.42928444331427</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09976473890187489</v>
+        <v>0.09887666434411728</v>
       </c>
       <c r="H98" t="n">
-        <v>3.133258481223048</v>
+        <v>2.215198413869012</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.114374795237651</v>
+        <v>0.1144510070014727</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4188066795924703</v>
+        <v>0.4857190999558986</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0370662976259282</v>
+        <v>0.04482889533438875</v>
       </c>
       <c r="H100" t="n">
-        <v>-3.51978419197706</v>
+        <v>16.68555462285105</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01971051347660408</v>
+        <v>0.03823120046514101</v>
       </c>
       <c r="H101" t="n">
-        <v>-2.259306526534465</v>
+        <v>89.58126333042455</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>0.005788194312001992</v>
+        <v>0.003087867752034996</v>
       </c>
       <c r="H102" t="n">
-        <v>343.2000872020565</v>
+        <v>229.7416199394293</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.004227424377692959</v>
+        <v>-0.004543729862943571</v>
       </c>
       <c r="H103" t="n">
-        <v>34.86285995221349</v>
+        <v>29.98915131785679</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07361910757432487</v>
+        <v>0.0823819786646366</v>
       </c>
       <c r="H104" t="n">
-        <v>60.39338338012712</v>
+        <v>79.48498321893285</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07247046015183095</v>
+        <v>0.07991895588608439</v>
       </c>
       <c r="H105" t="n">
-        <v>9.061328242399464</v>
+        <v>20.27062422980741</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.283491890515842</v>
+        <v>-0.2828612726824159</v>
       </c>
       <c r="H106" t="n">
-        <v>-9.981864312652721</v>
+        <v>-9.737213487322911</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2920791064147253</v>
+        <v>-0.2298921525093293</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.919067404205074</v>
+        <v>20.56774645891914</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1495831492458883</v>
+        <v>0.1485438316268517</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.9556302322816139</v>
+        <v>-1.643799715842587</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2113883324529915</v>
+        <v>0.1906675479339457</v>
       </c>
       <c r="H109" t="n">
-        <v>11.9601063658421</v>
+        <v>0.9855118278395734</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06576750815211897</v>
+        <v>0.06537063992223216</v>
       </c>
       <c r="H110" t="n">
-        <v>-8.523050798953786</v>
+        <v>-9.075060384308516</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.08045620285303999</v>
+        <v>0.07816281847633809</v>
       </c>
       <c r="H111" t="n">
-        <v>23.0166401681508</v>
+        <v>19.51008093925803</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.105040786183103</v>
+        <v>0.08815336010685895</v>
       </c>
       <c r="H112" t="n">
-        <v>24.77197432234134</v>
+        <v>4.712361582175962</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07231418636215091</v>
+        <v>0.08477759191004267</v>
       </c>
       <c r="H113" t="n">
-        <v>-6.110457416758494</v>
+        <v>10.07147734305045</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>